--- a/PS hito 1 segunda correccion/Mapa de actividades prototipado Dario v1.0.xlsx
+++ b/PS hito 1 segunda correccion/Mapa de actividades prototipado Dario v1.0.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>Instalacion y Operación</t>
   </si>
@@ -119,9 +119,6 @@
     <t>- Dirigir los estudios de viabilidad.</t>
   </si>
   <si>
-    <t>- Planificar la transición del sistema (si se aplica).</t>
-  </si>
-  <si>
     <t>- Refinar y Finalizar la idea o necesidad.</t>
   </si>
   <si>
@@ -206,7 +203,7 @@
     <t>Prototipo Maqueta (1 a 2 iteraciones)</t>
   </si>
   <si>
-    <t>Prototipo Evolutivo (2 iteraciones)</t>
+    <t>Prototipo Evolutivo (1 a2 iteraciones)</t>
   </si>
 </sst>
 </file>
@@ -697,7 +694,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,16 +715,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
       <c r="F1" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -821,7 +818,7 @@
     </row>
     <row r="6" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -960,7 +957,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1194,9 +1191,10 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
+    <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="e">
+        <f>C1:I1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>13</v>
@@ -1217,7 +1215,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>13</v>
@@ -1238,7 +1236,7 @@
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1251,9 +1249,9 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1270,7 +1268,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="10" t="s">
@@ -1285,9 +1283,9 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1304,7 +1302,7 @@
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1319,7 +1317,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1338,7 +1336,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1355,7 +1353,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1372,7 +1370,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1389,7 +1387,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1404,9 +1402,9 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1421,7 +1419,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1440,7 +1438,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1457,7 +1455,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1474,7 +1472,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1495,7 +1493,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1514,7 +1512,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1531,7 +1529,7 @@
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1546,7 +1544,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1563,7 +1561,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1580,7 +1578,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1597,7 +1595,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1614,7 +1612,7 @@
     </row>
     <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1629,7 +1627,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>

--- a/PS hito 1 segunda correccion/Mapa de actividades prototipado Dario v1.0.xlsx
+++ b/PS hito 1 segunda correccion/Mapa de actividades prototipado Dario v1.0.xlsx
@@ -694,7 +694,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="J43" sqref="J43:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="e">
         <f>C1:I1</f>
         <v>#VALUE!</v>
